--- a/data/new_structure.xlsx
+++ b/data/new_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nerub\OneDrive - Universidad de Las Américas\Personales\Pablo\CV\UDLA\dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28772D4-7C49-45CE-971D-E6CEE8C1E906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015F275-DC25-4796-820F-7914D76CA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA1B380B-BEC7-489D-AEC6-CC98AA74ABB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA1B380B-BEC7-489D-AEC6-CC98AA74ABB5}"/>
   </bookViews>
   <sheets>
     <sheet name="score_long" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="161">
   <si>
     <t>origen</t>
   </si>
@@ -227,12 +227,6 @@
     <t>-2</t>
   </si>
   <si>
-    <t>edad madre</t>
-  </si>
-  <si>
-    <t>edad padre</t>
-  </si>
-  <si>
     <t>[-Inf,41)</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
   </si>
   <si>
     <t>ingreso_familiar</t>
-  </si>
-  <si>
-    <t>pension_long</t>
   </si>
 </sst>
 </file>
@@ -1116,16 +1107,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF66E6E6-07DC-4011-9777-335764911AE7}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2662,7 +2655,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>52</v>
@@ -2706,7 +2699,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>53</v>
@@ -2750,7 +2743,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
@@ -2794,7 +2787,7 @@
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>56</v>
@@ -2838,7 +2831,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>58</v>
@@ -2882,7 +2875,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>59</v>
@@ -2926,7 +2919,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>60</v>
@@ -2970,7 +2963,7 @@
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>61</v>
@@ -3014,7 +3007,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>52</v>
@@ -3059,7 +3052,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>53</v>
@@ -3103,7 +3096,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>54</v>
@@ -3147,13 +3140,13 @@
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" s="18">
         <v>1446.68</v>
@@ -3191,7 +3184,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>58</v>
@@ -3235,7 +3228,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>59</v>
@@ -3279,7 +3272,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>60</v>
@@ -3323,7 +3316,7 @@
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>61</v>
@@ -3367,10 +3360,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
@@ -3411,13 +3404,13 @@
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="18">
         <v>25.7012</v>
@@ -3455,7 +3448,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>47</v>
@@ -3499,10 +3492,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3543,10 +3536,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3587,10 +3580,10 @@
     </row>
     <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3631,10 +3624,10 @@
     </row>
     <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3675,10 +3668,10 @@
     </row>
     <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3719,10 +3712,10 @@
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3763,10 +3756,10 @@
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3807,10 +3800,10 @@
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3858,7 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A9506A-9C57-428E-9775-F4F52C4CB6BB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3866,10 +3859,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3877,10 +3870,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="3">
         <v>27</v>
@@ -3888,32 +3881,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -3921,10 +3914,10 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="9">
         <v>96</v>
@@ -3932,10 +3925,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>49</v>
@@ -3943,10 +3936,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
@@ -3954,10 +3947,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3">
         <v>16</v>
@@ -3965,10 +3958,10 @@
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="19">
         <v>24</v>
@@ -3976,10 +3969,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
@@ -3987,10 +3980,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>55</v>
@@ -3998,10 +3991,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -4009,10 +4002,10 @@
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="37">
         <v>3</v>
@@ -4020,10 +4013,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -4031,10 +4024,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -4042,10 +4035,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>62</v>
@@ -4053,10 +4046,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -4064,10 +4057,10 @@
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="9">
         <v>6</v>
@@ -4075,7 +4068,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -4086,7 +4079,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
@@ -4097,7 +4090,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -4108,7 +4101,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
@@ -4119,10 +4112,10 @@
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>49</v>
@@ -4130,10 +4123,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="39">
         <v>0</v>
@@ -4146,2387 +4139,2549 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002126A2-492F-4060-8873-C6583A73BA29}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>194.34139999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>176.59440000000001</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1707.4770000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-65.937200000000004</v>
+      </c>
+      <c r="J2" s="2">
+        <v>402.37180000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-0.12748436099999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-0.13762480599999999</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-0.111111061</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.22453604625000001</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.12389307849999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3420.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>158.46549999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-92.8553</v>
+      </c>
+      <c r="G3" s="5">
+        <v>688.56799999999998</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>148.57300000000001</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-181.3603</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-9.022927E-2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-0.29356985000000002</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-0.13100896424999997</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.46417122225000002</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.17763087924999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D4" s="2">
+        <v>2808.92</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-92.285799999999995</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-185.2764</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-208.6542</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-730.72950000000003</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.18486647525</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.20118727449999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-0.51883153324999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.2147871925</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-0.13738489175000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2495.66</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-228.07069999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>263.6671</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-577.26660000000004</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-543.94010000000003</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.34015598050000001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5.6413650500000009E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>-9.2408933750000005E-2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6.4331205249999995E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>-0.18451007600000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D6" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-93.406300000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>164.107</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1122.4860000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2264.6410000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-415.24630000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-374.87459999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-9.2125145000000006E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.4038417500000008E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.1260707325</v>
+      </c>
+      <c r="N6" s="2">
+        <v>6.3642747500000013E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-0.27591197499999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D7" s="5">
         <v>3420.5</v>
       </c>
-      <c r="D2" s="2">
-        <v>194.34139999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>176.59440000000001</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1707.4770000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-65.937200000000004</v>
-      </c>
-      <c r="I2" s="2">
-        <v>402.37180000000001</v>
-      </c>
-      <c r="J2" s="2">
-        <v>-0.12748436099999999</v>
-      </c>
-      <c r="K2" s="2">
-        <v>-0.13762480599999999</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-0.111111061</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.22453604625000001</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.12389307849999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="E7" s="5">
+        <v>-17.564399999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-82.677400000000006</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3056.1280000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-85.010900000000007</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-91.308099999999996</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.185428605</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-0.101268915</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.19299776000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.11804228250000001</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-0.20700725749999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3522.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3522.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>140.14760000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>200.2285</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-110.155</v>
+      </c>
+      <c r="J9" s="5">
+        <v>268.5609</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8.9664239999999978E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-0.3206496875</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.13013651749999999</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.52082265750000001</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.1125107925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3005.42</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-308.80099999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-176.11840000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1855.2280000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-596.83420000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1255.3131000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.0617902500000004E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.32232055500000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-0.25510814250000002</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.12761683499999998</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-0.46789923750000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3821</v>
+      </c>
+      <c r="E11" s="5">
+        <v>105.0523</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-80.830399999999997</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-3037.8960000000002</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-1.9678</v>
+      </c>
+      <c r="J11" s="5">
+        <v>259.34100000000001</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-6.3472217499999997E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>9.0309352250000002E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-8.4305386999999996E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2.0087434999999997E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-9.8663523249999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3821</v>
+      </c>
+      <c r="E12" s="2">
+        <v>179.50399999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-108.3813</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5909.232</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-238.5744</v>
+      </c>
+      <c r="J12" s="2">
+        <v>753.15300000000002</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6.3305765000000014E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-0.22531019499999999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-7.2995602500000006E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.31061010499999997</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.17269614250000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3420.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-31.921399999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <v>102.227</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-1965.2760000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45.988</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-455.61259999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>742.0806</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-7.6428532500000007E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.1041138475</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.6279049999999998E-3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>-6.9880500000000373E-4</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-0.19710074750000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="2">
+        <v>343.79219999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>141.52950000000001</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1934.98</v>
+      </c>
+      <c r="I14" s="2">
+        <v>442.07420000000002</v>
+      </c>
+      <c r="J14" s="2">
+        <v>338.07010000000002</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-0.48777857499999999</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-0.34412984999999996</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.39148327500000002</v>
+      </c>
+      <c r="N14" s="2">
+        <v>6.5335999999999797E-3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.26771894999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3420.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>476.91019999999997</v>
+      </c>
+      <c r="F15" s="5">
+        <v>532.7998</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>273.68520000000001</v>
+      </c>
+      <c r="J15" s="5">
+        <v>399.7894</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-0.35993110249999999</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-0.20665653</v>
+      </c>
+      <c r="M15" s="5">
+        <v>-0.47419631500000003</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.48666167500000002</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.51256609749999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3650</v>
+      </c>
+      <c r="E16" s="2">
+        <v>99.043599999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>184.74969999999999</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-1408.7049999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-179.64510000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>315.23860000000002</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-4.82742725E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-0.205301395</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-1.5809347499999987E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.28754345999999997</v>
+      </c>
+      <c r="O16" s="3">
+        <v>7.0791812499999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3650</v>
+      </c>
+      <c r="E17" s="5">
+        <v>58.787700000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>64.592100000000002</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>-228.69630000000001</v>
+      </c>
+      <c r="J17" s="5">
+        <v>408.67540000000002</v>
+      </c>
+      <c r="K17" s="5">
+        <v>7.3173957499999998E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-3.5592357500000005E-2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>-0.1561138725</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.2195324025</v>
+      </c>
+      <c r="O17" s="6">
+        <v>-5.5050584999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3650</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-79.810599999999994</v>
+      </c>
+      <c r="F18" s="2">
+        <v>121.60809999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-1026.3530000000001</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-451.3252</v>
+      </c>
+      <c r="J18" s="2">
+        <v>121.3026</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.1189779</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.1934470425</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-0.27452053499999995</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-8.7242162499999998E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-4.3447652500000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D19" s="5">
+        <v>2983.64</v>
+      </c>
+      <c r="E19" s="5">
+        <v>163.39060000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1063.7619999999999</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>-320.50409999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1206.4411</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-0.46285369124999998</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-0.17590666475</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-2.8750217250000005E-2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.45413732500000004</v>
+      </c>
+      <c r="O19" s="6">
+        <v>-6.2606400000000118E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2306.48</v>
+      </c>
+      <c r="E20" s="2">
+        <v>251.59739999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>66.545199999999994</v>
+      </c>
+      <c r="G20" s="2">
+        <v>442.85399999999998</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1349.519</v>
+      </c>
+      <c r="I20" s="2">
+        <v>215.46559999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>187.1396</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-0.36912176249999995</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-0.26723897750000003</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.27389838999999999</v>
+      </c>
+      <c r="N20" s="2">
+        <v>9.7999537499999984E-2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.113901875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2306.48</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-194.75909999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-130.7268</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>-604.59450000000004</v>
+      </c>
+      <c r="J21" s="5">
+        <v>307.42759999999998</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.78045513749999995</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.23783271249999999</v>
+      </c>
+      <c r="M21" s="5">
+        <v>-0.49017885000000005</v>
+      </c>
+      <c r="N21" s="5">
+        <v>-0.19670429750000001</v>
+      </c>
+      <c r="O21" s="6">
+        <v>-6.3362449999999834E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>3420.5</v>
       </c>
-      <c r="D3" s="5">
-        <v>158.46549999999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-92.8553</v>
-      </c>
-      <c r="F3" s="5">
-        <v>688.56799999999998</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>148.57300000000001</v>
-      </c>
-      <c r="I3" s="5">
-        <v>-181.3603</v>
-      </c>
-      <c r="J3" s="5">
-        <v>-9.022927E-2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>-0.29356985000000002</v>
-      </c>
-      <c r="L3" s="5">
-        <v>-0.13100896424999997</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.46417122225000002</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.17763087924999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E22" s="2">
+        <v>9.0086999999999993</v>
+      </c>
+      <c r="F22" s="2">
+        <v>363.80799999999999</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-384.10890000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>34.760399999999997</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5.4849092499999978E-3</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-5.8080695750000001E-2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>-5.6168761750000004E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.10595776775</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9.0759542499999988E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="15">
+      <c r="D23" s="5">
+        <v>3005.42</v>
+      </c>
+      <c r="E23" s="5">
+        <v>231.86060000000001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>587.60329999999999</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>386.94</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-157.01259999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <v>505.20769999999999</v>
+      </c>
+      <c r="K23" s="5">
+        <v>-0.13273105674999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>8.4052047499999921E-3</v>
+      </c>
+      <c r="M23" s="5">
+        <v>-0.28596122499999999</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-0.23193440100000001</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.52644042775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3755.48</v>
+      </c>
+      <c r="E24" s="2">
+        <v>178.1182</v>
+      </c>
+      <c r="F24" s="2">
+        <v>225.98169999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1066.432</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>182.3759</v>
+      </c>
+      <c r="J24" s="2">
+        <v>29.088899999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <v>-0.31895421499999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-0.20330610500000001</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.14688882</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.13558053500000003</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.14134000499999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D25" s="5">
+        <v>3490</v>
+      </c>
+      <c r="E25" s="5">
+        <v>64.952399999999997</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-47.096400000000003</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1267.607</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-143.3109</v>
+      </c>
+      <c r="J25" s="5">
+        <v>404.64229999999998</v>
+      </c>
+      <c r="K25" s="5">
+        <v>3.9846259999999963E-3</v>
+      </c>
+      <c r="L25" s="5">
+        <v>-5.8537681499999994E-2</v>
+      </c>
+      <c r="M25" s="5">
+        <v>6.3280931999999998E-2</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.12092632075000001</v>
+      </c>
+      <c r="O25" s="6">
+        <v>-8.9731385750000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-82.351799999999997</v>
+      </c>
+      <c r="F26" s="2">
+        <v>21.161799999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>99.242000000000004</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2426.3069999999998</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-563.83939999999996</v>
+      </c>
+      <c r="J26" s="2">
+        <v>361.65230000000003</v>
+      </c>
+      <c r="K26" s="2">
+        <v>-1.4241705E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.26652883000000005</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2.6156085000000003E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-0.17327306749999999</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-0.29701666249999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3092.78</v>
+      </c>
+      <c r="E27" s="5">
+        <v>49.906599999999997</v>
+      </c>
+      <c r="F27" s="5">
+        <v>8.3201999999999998</v>
+      </c>
+      <c r="G27" s="5">
+        <v>30.931000000000001</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>-241.1473</v>
+      </c>
+      <c r="J27" s="5">
+        <v>370.39350000000002</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-0.30011562250000001</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.14170293750000001</v>
+      </c>
+      <c r="M27" s="5">
+        <v>-8.9562787499999991E-2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.11118704500000001</v>
+      </c>
+      <c r="O27" s="6">
+        <v>-0.17906547500000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3522.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-180.68549999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-283.03730000000002</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>394.71100000000001</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-164.21619999999999</v>
+      </c>
+      <c r="J28" s="2">
+        <v>-779.39790000000005</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.38364708000000003</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.5263534999999998E-2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>9.8465062500000006E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4.2214282500000005E-2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-0.35764411750000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3420.5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>-106.249</v>
+      </c>
+      <c r="F29" s="5">
+        <v>215.52199999999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-5960.94</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1777.325</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-504.97570000000002</v>
+      </c>
+      <c r="J29" s="5">
+        <v>59.151400000000002</v>
+      </c>
+      <c r="K29" s="5">
+        <v>8.3265950750000012E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>7.3247050750000001E-2</v>
+      </c>
+      <c r="M29" s="5">
+        <v>-9.7902980749999993E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.14585303775</v>
+      </c>
+      <c r="O29" s="6">
+        <v>-0.23687138125000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40.595700000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42.551299999999998</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-121.6236</v>
+      </c>
+      <c r="J30" s="2">
+        <v>-138.46780000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <v>-6.3098024999999988E-2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>-0.14600999250000002</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.21020763999999997</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.19100696</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-0.12865459499999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2290</v>
+      </c>
+      <c r="E31" s="5">
+        <v>205.4451</v>
+      </c>
+      <c r="F31" s="5">
+        <v>-13.0227</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>421.76600000000002</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-459.32409999999999</v>
+      </c>
+      <c r="J31" s="5">
+        <v>143.8777</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.15575548000000003</v>
+      </c>
+      <c r="L31" s="5">
+        <v>-2.8486921749999998E-2</v>
+      </c>
+      <c r="M31" s="5">
+        <v>-0.2500219005</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.11158779000000001</v>
+      </c>
+      <c r="O31" s="6">
+        <v>8.244881875E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>127.7655</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-202.0394</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5411.0749999999998</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2530.6990000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-260.54149999999998</v>
+      </c>
+      <c r="J32" s="2">
+        <v>611.4914</v>
+      </c>
+      <c r="K32" s="2">
+        <v>-8.4099792499999992E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>-0.14244737500000001</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.14190396</v>
+      </c>
+      <c r="N32" s="2">
+        <v>4.3998319999999994E-2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>7.8683199999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>2808.92</v>
       </c>
-      <c r="D4" s="2">
-        <v>-92.285799999999995</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-185.2764</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-208.6542</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-730.72950000000003</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.18486647525</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.20118727449999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-0.51883153324999998</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.2147871925</v>
-      </c>
-      <c r="N4" s="3">
-        <v>-0.13738489175000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2495.66</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-228.07069999999999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>263.6671</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-577.26660000000004</v>
-      </c>
-      <c r="I5" s="5">
-        <v>-543.94010000000003</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.34015598050000001</v>
-      </c>
-      <c r="K5" s="5">
-        <v>5.6413650500000009E-2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>-9.2408933750000005E-2</v>
-      </c>
-      <c r="M5" s="5">
-        <v>6.4331205249999995E-2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-0.18451007600000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E33" s="5">
+        <v>-187.78970000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>348.66109999999998</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1810.1590000000001</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-660.21109999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1132.0578</v>
+      </c>
+      <c r="K33" s="5">
+        <v>-2.4134732500000006E-2</v>
+      </c>
+      <c r="L33" s="5">
+        <v>8.150781E-2</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.18218756</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.26969483500000002</v>
+      </c>
+      <c r="O33" s="6">
+        <v>-0.57779875250000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D34" s="2">
+        <v>4747.1400000000003</v>
+      </c>
+      <c r="E34" s="2">
+        <v>193.69</v>
+      </c>
+      <c r="F34" s="2">
+        <v>197.56989999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-296.92689999999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>460.30070000000001</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.13521005500000002</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-5.5816225000000011E-3</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-2.3222012500000003E-2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>-0.27153754250000001</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.20412255000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3369.56</v>
+      </c>
+      <c r="E35" s="5">
+        <v>-217.7833</v>
+      </c>
+      <c r="F35" s="5">
+        <v>-124.18559999999999</v>
+      </c>
+      <c r="G35" s="5">
+        <v>237.697</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>-415.21719999999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>-395.64299999999997</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.215329035</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.38094429750000003</v>
+      </c>
+      <c r="M35" s="5">
+        <v>-0.47562325</v>
+      </c>
+      <c r="N35" s="5">
+        <v>4.4258894999999993E-2</v>
+      </c>
+      <c r="O35" s="6">
+        <v>-0.36053112000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2808.92</v>
+      </c>
+      <c r="E36" s="2">
+        <v>109.3571</v>
+      </c>
+      <c r="F36" s="2">
+        <v>678.15819999999997</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5584.4160000000002</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-299.25560000000002</v>
+      </c>
+      <c r="J36" s="2">
+        <v>217.54750000000001</v>
+      </c>
+      <c r="K36" s="2">
+        <v>-0.35249878749999997</v>
+      </c>
+      <c r="L36" s="2">
+        <v>-0.1333232775</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.9284570000000008E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.169297005</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.106032235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="5">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5">
         <v>3420.5</v>
       </c>
-      <c r="D6" s="2">
-        <v>-93.406300000000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>164.107</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1122.4860000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2264.6410000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-415.24630000000002</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-374.87459999999999</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-9.2125145000000006E-2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3.4038417500000008E-2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.1260707325</v>
-      </c>
-      <c r="M6" s="2">
-        <v>6.3642747500000013E-2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-0.27591197499999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E37" s="5">
+        <v>52.232700000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <v>331.13440000000003</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>818.13800000000003</v>
+      </c>
+      <c r="I37" s="5">
+        <v>-328.75819999999999</v>
+      </c>
+      <c r="J37" s="5">
+        <v>-65.808400000000006</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.26509956749999997</v>
+      </c>
+      <c r="L37" s="5">
+        <v>-5.92591425E-2</v>
+      </c>
+      <c r="M37" s="5">
+        <v>-0.11696576</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.20447324</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-7.8062964999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2790</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-17.016999999999999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>806.29930000000002</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>82.191999999999993</v>
+      </c>
+      <c r="J38" s="2">
+        <v>960.32349999999997</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-0.44676684249999998</v>
+      </c>
+      <c r="L38" s="2">
+        <v>-0.3983216175</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-0.11911255999999999</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.60228686750000004</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.26118724000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4119.5600000000004</v>
+      </c>
+      <c r="E39" s="5">
+        <v>587.35839999999996</v>
+      </c>
+      <c r="F39" s="5">
+        <v>104.27079999999999</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>185.09790000000001</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1255.9167</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.32361542500000001</v>
+      </c>
+      <c r="L39" s="5">
+        <v>-8.5441675000000009E-2</v>
+      </c>
+      <c r="M39" s="5">
+        <v>-0.69739435499999991</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.23437130250000004</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.58063897999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3092.78</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-33.284999999999997</v>
+      </c>
+      <c r="F40" s="2">
+        <v>224.2878</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2180.2350000000001</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-401.65170000000001</v>
+      </c>
+      <c r="J40" s="2">
+        <v>114.913</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-7.9768872500000004E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-5.5910259999999996E-2</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.103428275</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-4.8076424999999999E-2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>4.3139217500000007E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3272.78</v>
+      </c>
+      <c r="E41" s="5">
+        <v>52.298299999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <v>173.5394</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3695.2469999999998</v>
+      </c>
+      <c r="H41" s="5">
+        <v>-168.965</v>
+      </c>
+      <c r="I41" s="5">
+        <v>-321.80810000000002</v>
+      </c>
+      <c r="J41" s="5">
+        <v>308.46809999999999</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-2.0823607500000004E-2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>8.4433872500000007E-2</v>
+      </c>
+      <c r="M41" s="5">
+        <v>-0.23413393500000002</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.16750761749999998</v>
+      </c>
+      <c r="O41" s="6">
+        <v>-6.8613544999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2790</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-366.59440000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-313.83819999999997</v>
+      </c>
+      <c r="G42" s="2">
+        <v>122.556</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-317.33620000000002</v>
+      </c>
+      <c r="J42" s="2">
+        <v>-157.94739999999999</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.45556312000000004</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.50483664000000006</v>
+      </c>
+      <c r="M42" s="2">
+        <v>-8.2221382499999968E-2</v>
+      </c>
+      <c r="N42" s="2">
+        <v>-0.454441655</v>
+      </c>
+      <c r="O42" s="3">
+        <v>-0.40626288249999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2894.24</v>
+      </c>
+      <c r="E43" s="5">
+        <v>322.77280000000002</v>
+      </c>
+      <c r="F43" s="5">
+        <v>84.740300000000005</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3038.8539999999998</v>
+      </c>
+      <c r="I43" s="5">
+        <v>-43.215000000000003</v>
+      </c>
+      <c r="J43" s="5">
+        <v>539.00549999999998</v>
+      </c>
+      <c r="K43" s="5">
+        <v>-0.44208225500000004</v>
+      </c>
+      <c r="L43" s="5">
+        <v>-0.393530555</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.40543534000000003</v>
+      </c>
+      <c r="N43" s="5">
+        <v>5.7982417499999987E-2</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0.33608591750000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-35.224800000000002</v>
+      </c>
+      <c r="F44" s="2">
+        <v>285.92689999999999</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8096.2749999999996</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-423.85550000000001</v>
+      </c>
+      <c r="J44" s="2">
+        <v>-99.917500000000004</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-1.0280203249999998E-2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2.49443315E-2</v>
+      </c>
+      <c r="M44" s="2">
+        <v>-9.53413075E-2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.11953400475000001</v>
+      </c>
+      <c r="O44" s="3">
+        <v>-7.7927788499999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D45" s="5">
         <v>3420.5</v>
       </c>
-      <c r="D7" s="5">
-        <v>-17.564399999999999</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-82.677400000000006</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3056.1280000000002</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-85.010900000000007</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-91.308099999999996</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.185428605</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-0.101268915</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.19299776000000002</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.11804228250000001</v>
-      </c>
-      <c r="N7" s="6">
-        <v>-0.20700725749999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3522.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3522.5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>140.14760000000001</v>
-      </c>
-      <c r="E9" s="5">
-        <v>200.2285</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-110.155</v>
-      </c>
-      <c r="I9" s="5">
-        <v>268.5609</v>
-      </c>
-      <c r="J9" s="5">
-        <v>8.9664239999999978E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-0.3206496875</v>
-      </c>
-      <c r="L9" s="5">
-        <v>-0.13013651749999999</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.52082265750000001</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.1125107925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="E45" s="5">
+        <v>-33.180599999999998</v>
+      </c>
+      <c r="F45" s="5">
+        <v>65.3489</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2993.7939999999999</v>
+      </c>
+      <c r="I45" s="5">
+        <v>-900.5249</v>
+      </c>
+      <c r="J45" s="5">
+        <v>252.73089999999999</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.37894316899999997</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.19009846599999999</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1.6955544999999999E-2</v>
+      </c>
+      <c r="N45" s="5">
+        <v>-0.50261850424999999</v>
+      </c>
+      <c r="O45" s="6">
+        <v>1.6750886999999992E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3122</v>
+      </c>
+      <c r="E46" s="2">
+        <v>190.82220000000001</v>
+      </c>
+      <c r="F46" s="2">
+        <v>101.5133</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-3026.6689999999999</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2933.9009999999998</v>
+      </c>
+      <c r="I46" s="2">
+        <v>284.83319999999998</v>
+      </c>
+      <c r="J46" s="2">
+        <v>360.94009999999997</v>
+      </c>
+      <c r="K46" s="2">
+        <v>-0.10441537249999999</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1.8986617500000004E-2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.19218051250000001</v>
+      </c>
+      <c r="N46" s="2">
+        <v>-0.28142983500000002</v>
+      </c>
+      <c r="O46" s="3">
+        <v>9.7858352500000009E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2790</v>
+      </c>
+      <c r="E47" s="5">
+        <v>80.023099999999999</v>
+      </c>
+      <c r="F47" s="5">
+        <v>161.7927</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>-280.1114</v>
+      </c>
+      <c r="J47" s="5">
+        <v>846.31</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.19018287749999996</v>
+      </c>
+      <c r="L47" s="5">
+        <v>-0.34836374000000003</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.29652866499999997</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.19480016</v>
+      </c>
+      <c r="O47" s="6">
+        <v>-6.1909782499999989E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3092.78</v>
+      </c>
+      <c r="E48" s="2">
+        <v>89.407499999999999</v>
+      </c>
+      <c r="F48" s="2">
+        <v>187.22149999999999</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-191.85059999999999</v>
+      </c>
+      <c r="J48" s="2">
+        <v>215.73429999999999</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.11365495749999997</v>
+      </c>
+      <c r="L48" s="2">
+        <v>-6.4426432499999992E-2</v>
+      </c>
+      <c r="M48" s="2">
+        <v>-0.32089500750000005</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.35363730250000003</v>
+      </c>
+      <c r="O48" s="3">
+        <v>-3.3337627499999994E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>3005.42</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-308.80099999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-176.11840000000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-1855.2280000000001</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-596.83420000000001</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1255.3131000000001</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4.0617902500000004E-2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.32232055500000001</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-0.25510814250000002</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.12761683499999998</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-0.46789923750000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="D49" s="5">
+        <v>3190</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-141.4091</v>
+      </c>
+      <c r="F49" s="5">
+        <v>223.00980000000001</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>-487.7525</v>
+      </c>
+      <c r="J49" s="5">
+        <v>-16.6386</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.49581452250000002</v>
+      </c>
+      <c r="L49" s="5">
+        <v>-2.0044442499999982E-2</v>
+      </c>
+      <c r="M49" s="5">
+        <v>-0.12972878249999997</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.11621450999999999</v>
+      </c>
+      <c r="O49" s="6">
+        <v>-0.12628941999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3650</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-157.37270000000001</v>
+      </c>
+      <c r="F50" s="2">
+        <v>38.976199999999999</v>
+      </c>
+      <c r="G50" s="2">
+        <v>86.843000000000004</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-314.94099999999997</v>
+      </c>
+      <c r="I50" s="2">
+        <v>-740.64210000000003</v>
+      </c>
+      <c r="J50" s="2">
+        <v>266.0369</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.18883565375</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.10242137749999999</v>
+      </c>
+      <c r="M50" s="2">
+        <v>-3.8400088999999998E-2</v>
+      </c>
+      <c r="N50" s="2">
+        <v>-9.3005044999999995E-2</v>
+      </c>
+      <c r="O50" s="3">
+        <v>-0.11651133475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3420.5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>66.977900000000005</v>
+      </c>
+      <c r="F51" s="5">
+        <v>-36.882300000000001</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>-162.63929999999999</v>
+      </c>
+      <c r="J51" s="5">
+        <v>289.74310000000003</v>
+      </c>
+      <c r="K51" s="5">
+        <v>-0.24315935225000002</v>
+      </c>
+      <c r="L51" s="5">
+        <v>-0.24248549575</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.26452232225</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.27546864999999998</v>
+      </c>
+      <c r="O51" s="6">
+        <v>-9.0200528000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3420.5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>22.290900000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <v>132.16980000000001</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-178.64099999999999</v>
+      </c>
+      <c r="J52" s="2">
+        <v>-49.647399999999998</v>
+      </c>
+      <c r="K52" s="2">
+        <v>-6.2720520000000002E-2</v>
+      </c>
+      <c r="L52" s="2">
+        <v>-5.3792977499999999E-2</v>
+      </c>
+      <c r="M52" s="2">
+        <v>-0.37105946000000001</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.40756364</v>
+      </c>
+      <c r="O52" s="3">
+        <v>-2.289062E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2790</v>
+      </c>
+      <c r="E53" s="5">
+        <v>40.595700000000001</v>
+      </c>
+      <c r="F53" s="5">
+        <v>233.72030000000001</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>-149.327</v>
+      </c>
+      <c r="J53" s="5">
+        <v>563.93650000000002</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.15575548000000003</v>
+      </c>
+      <c r="L53" s="5">
+        <v>-2.8486921749999998E-2</v>
+      </c>
+      <c r="M53" s="5">
+        <v>-0.2500219005</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.11158779000000001</v>
+      </c>
+      <c r="O53" s="6">
+        <v>8.244881875E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
-        <v>3821</v>
-      </c>
-      <c r="D11" s="5">
-        <v>105.0523</v>
-      </c>
-      <c r="E11" s="5">
-        <v>-80.830399999999997</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-3037.8960000000002</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-1.9678</v>
-      </c>
-      <c r="I11" s="5">
-        <v>259.34100000000001</v>
-      </c>
-      <c r="J11" s="5">
-        <v>-6.3472217499999997E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>9.0309352250000002E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>-8.4305386999999996E-2</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2.0087434999999997E-2</v>
-      </c>
-      <c r="N11" s="6">
-        <v>-9.8663523249999996E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3821</v>
-      </c>
-      <c r="D12" s="2">
-        <v>179.50399999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-108.3813</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5909.232</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-238.5744</v>
-      </c>
-      <c r="I12" s="2">
-        <v>753.15300000000002</v>
-      </c>
-      <c r="J12" s="2">
-        <v>6.3305765000000014E-2</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-0.22531019499999999</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-7.2995602500000006E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.31061010499999997</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.17269614250000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3420.5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-31.921399999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <v>102.227</v>
-      </c>
-      <c r="F13" s="5">
-        <v>-1965.2760000000001</v>
-      </c>
-      <c r="G13" s="5">
-        <v>45.988</v>
-      </c>
-      <c r="H13" s="5">
-        <v>-455.61259999999999</v>
-      </c>
-      <c r="I13" s="5">
-        <v>742.0806</v>
-      </c>
-      <c r="J13" s="5">
-        <v>-7.6428532500000007E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.1041138475</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2.6279049999999998E-3</v>
-      </c>
-      <c r="M13" s="5">
-        <v>-6.9880500000000373E-4</v>
-      </c>
-      <c r="N13" s="6">
-        <v>-0.19710074750000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3200</v>
-      </c>
-      <c r="D14" s="2">
-        <v>343.79219999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>141.52950000000001</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1934.98</v>
-      </c>
-      <c r="H14" s="2">
-        <v>442.07420000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>338.07010000000002</v>
-      </c>
-      <c r="J14" s="2">
-        <v>-0.48777857499999999</v>
-      </c>
-      <c r="K14" s="2">
-        <v>-0.34412984999999996</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.39148327500000002</v>
-      </c>
-      <c r="M14" s="2">
-        <v>6.5335999999999797E-3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.26771894999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3420.5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>476.91019999999997</v>
-      </c>
-      <c r="E15" s="5">
-        <v>532.7998</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>273.68520000000001</v>
-      </c>
-      <c r="I15" s="5">
-        <v>399.7894</v>
-      </c>
-      <c r="J15" s="5">
-        <v>-0.35993110249999999</v>
-      </c>
-      <c r="K15" s="5">
-        <v>-0.20665653</v>
-      </c>
-      <c r="L15" s="5">
-        <v>-0.47419631500000003</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.48666167500000002</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.51256609749999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3650</v>
-      </c>
-      <c r="D16" s="2">
-        <v>99.043599999999998</v>
-      </c>
-      <c r="E16" s="2">
-        <v>184.74969999999999</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-1408.7049999999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-179.64510000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <v>315.23860000000002</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-4.82742725E-2</v>
-      </c>
-      <c r="K16" s="2">
-        <v>-0.205301395</v>
-      </c>
-      <c r="L16" s="2">
-        <v>-1.5809347499999987E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.28754345999999997</v>
-      </c>
-      <c r="N16" s="3">
-        <v>7.0791812499999995E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3650</v>
-      </c>
-      <c r="D17" s="5">
-        <v>58.787700000000001</v>
-      </c>
-      <c r="E17" s="5">
-        <v>64.592100000000002</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>-228.69630000000001</v>
-      </c>
-      <c r="I17" s="5">
-        <v>408.67540000000002</v>
-      </c>
-      <c r="J17" s="5">
-        <v>7.3173957499999998E-2</v>
-      </c>
-      <c r="K17" s="5">
-        <v>-3.5592357500000005E-2</v>
-      </c>
-      <c r="L17" s="5">
-        <v>-0.1561138725</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0.2195324025</v>
-      </c>
-      <c r="N17" s="6">
-        <v>-5.5050584999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3650</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-79.810599999999994</v>
-      </c>
-      <c r="E18" s="2">
-        <v>121.60809999999999</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-1026.3530000000001</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-451.3252</v>
-      </c>
-      <c r="I18" s="2">
-        <v>121.3026</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.1189779</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.1934470425</v>
-      </c>
-      <c r="L18" s="2">
-        <v>-0.27452053499999995</v>
-      </c>
-      <c r="M18" s="2">
-        <v>-8.7242162499999998E-2</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-4.3447652500000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2983.64</v>
-      </c>
-      <c r="D19" s="5">
-        <v>163.39060000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1063.7619999999999</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>-320.50409999999999</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1206.4411</v>
-      </c>
-      <c r="J19" s="5">
-        <v>-0.46285369124999998</v>
-      </c>
-      <c r="K19" s="5">
-        <v>-0.17590666475</v>
-      </c>
-      <c r="L19" s="5">
-        <v>-2.8750217250000005E-2</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.45413732500000004</v>
-      </c>
-      <c r="N19" s="6">
-        <v>-6.2606400000000118E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2306.48</v>
-      </c>
-      <c r="D20" s="2">
-        <v>251.59739999999999</v>
-      </c>
-      <c r="E20" s="2">
-        <v>66.545199999999994</v>
-      </c>
-      <c r="F20" s="2">
-        <v>442.85399999999998</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1349.519</v>
-      </c>
-      <c r="H20" s="2">
-        <v>215.46559999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>187.1396</v>
-      </c>
-      <c r="J20" s="2">
-        <v>-0.36912176249999995</v>
-      </c>
-      <c r="K20" s="2">
-        <v>-0.26723897750000003</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.27389838999999999</v>
-      </c>
-      <c r="M20" s="2">
-        <v>9.7999537499999984E-2</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.113901875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2306.48</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-194.75909999999999</v>
-      </c>
-      <c r="E21" s="5">
-        <v>-130.7268</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>-604.59450000000004</v>
-      </c>
-      <c r="I21" s="5">
-        <v>307.42759999999998</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.78045513749999995</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.23783271249999999</v>
-      </c>
-      <c r="L21" s="5">
-        <v>-0.49017885000000005</v>
-      </c>
-      <c r="M21" s="5">
-        <v>-0.19670429750000001</v>
-      </c>
-      <c r="N21" s="6">
-        <v>-6.3362449999999834E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3420.5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9.0086999999999993</v>
-      </c>
-      <c r="E22" s="2">
-        <v>363.80799999999999</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-384.10890000000001</v>
-      </c>
-      <c r="I22" s="2">
-        <v>34.760399999999997</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5.4849092499999978E-3</v>
-      </c>
-      <c r="K22" s="2">
-        <v>-5.8080695750000001E-2</v>
-      </c>
-      <c r="L22" s="2">
-        <v>-5.6168761750000004E-2</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.10595776775</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9.0759542499999988E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3005.42</v>
-      </c>
-      <c r="D23" s="5">
-        <v>231.86060000000001</v>
-      </c>
-      <c r="E23" s="5">
-        <v>587.60329999999999</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>386.94</v>
-      </c>
-      <c r="H23" s="5">
-        <v>-157.01259999999999</v>
-      </c>
-      <c r="I23" s="5">
-        <v>505.20769999999999</v>
-      </c>
-      <c r="J23" s="5">
-        <v>-0.13273105674999999</v>
-      </c>
-      <c r="K23" s="5">
-        <v>8.4052047499999921E-3</v>
-      </c>
-      <c r="L23" s="5">
-        <v>-0.28596122499999999</v>
-      </c>
-      <c r="M23" s="5">
-        <v>-0.23193440100000001</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.52644042775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3755.48</v>
-      </c>
-      <c r="D24" s="2">
-        <v>178.1182</v>
-      </c>
-      <c r="E24" s="2">
-        <v>225.98169999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1066.432</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>182.3759</v>
-      </c>
-      <c r="I24" s="2">
-        <v>29.088899999999999</v>
-      </c>
-      <c r="J24" s="2">
-        <v>-0.31895421499999999</v>
-      </c>
-      <c r="K24" s="2">
-        <v>-0.20330610500000001</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.14688882</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.13558053500000003</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0.14134000499999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3490</v>
-      </c>
-      <c r="D25" s="5">
-        <v>64.952399999999997</v>
-      </c>
-      <c r="E25" s="5">
-        <v>-47.096400000000003</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1267.607</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>-143.3109</v>
-      </c>
-      <c r="I25" s="5">
-        <v>404.64229999999998</v>
-      </c>
-      <c r="J25" s="5">
-        <v>3.9846259999999963E-3</v>
-      </c>
-      <c r="K25" s="5">
-        <v>-5.8537681499999994E-2</v>
-      </c>
-      <c r="L25" s="5">
-        <v>6.3280931999999998E-2</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0.12092632075000001</v>
-      </c>
-      <c r="N25" s="6">
-        <v>-8.9731385750000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3420.5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-82.351799999999997</v>
-      </c>
-      <c r="E26" s="2">
-        <v>21.161799999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>99.242000000000004</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2426.3069999999998</v>
-      </c>
-      <c r="H26" s="2">
-        <v>-563.83939999999996</v>
-      </c>
-      <c r="I26" s="2">
-        <v>361.65230000000003</v>
-      </c>
-      <c r="J26" s="2">
-        <v>-1.4241705E-2</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.26652883000000005</v>
-      </c>
-      <c r="L26" s="2">
-        <v>2.6156085000000003E-2</v>
-      </c>
-      <c r="M26" s="2">
-        <v>-0.17327306749999999</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-0.29701666249999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3092.78</v>
-      </c>
-      <c r="D27" s="5">
-        <v>49.906599999999997</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8.3201999999999998</v>
-      </c>
-      <c r="F27" s="5">
-        <v>30.931000000000001</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>-241.1473</v>
-      </c>
-      <c r="I27" s="5">
-        <v>370.39350000000002</v>
-      </c>
-      <c r="J27" s="5">
-        <v>-0.30011562250000001</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.14170293750000001</v>
-      </c>
-      <c r="L27" s="5">
-        <v>-8.9562787499999991E-2</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0.11118704500000001</v>
-      </c>
-      <c r="N27" s="6">
-        <v>-0.17906547500000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3522.5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-180.68549999999999</v>
-      </c>
-      <c r="E28" s="2">
-        <v>-283.03730000000002</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>394.71100000000001</v>
-      </c>
-      <c r="H28" s="2">
-        <v>-164.21619999999999</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-779.39790000000005</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.38364708000000003</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1.5263534999999998E-2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>9.8465062500000006E-2</v>
-      </c>
-      <c r="M28" s="2">
-        <v>4.2214282500000005E-2</v>
-      </c>
-      <c r="N28" s="3">
-        <v>-0.35764411750000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="5">
-        <v>3420.5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-106.249</v>
-      </c>
-      <c r="E29" s="5">
-        <v>215.52199999999999</v>
-      </c>
-      <c r="F29" s="5">
-        <v>-5960.94</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1777.325</v>
-      </c>
-      <c r="H29" s="5">
-        <v>-504.97570000000002</v>
-      </c>
-      <c r="I29" s="5">
-        <v>59.151400000000002</v>
-      </c>
-      <c r="J29" s="5">
-        <v>8.3265950750000012E-2</v>
-      </c>
-      <c r="K29" s="5">
-        <v>7.3247050750000001E-2</v>
-      </c>
-      <c r="L29" s="5">
-        <v>-9.7902980749999993E-2</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0.14585303775</v>
-      </c>
-      <c r="N29" s="6">
-        <v>-0.23687138125000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3420.5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>40.595700000000001</v>
-      </c>
-      <c r="E30" s="2">
-        <v>42.551299999999998</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>-121.6236</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-138.46780000000001</v>
-      </c>
-      <c r="J30" s="2">
-        <v>-6.3098024999999988E-2</v>
-      </c>
-      <c r="K30" s="2">
-        <v>-0.14600999250000002</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.21020763999999997</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.19100696</v>
-      </c>
-      <c r="N30" s="3">
-        <v>-0.12865459499999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2290</v>
-      </c>
-      <c r="D31" s="5">
-        <v>205.4451</v>
-      </c>
-      <c r="E31" s="5">
-        <v>-13.0227</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>421.76600000000002</v>
-      </c>
-      <c r="H31" s="5">
-        <v>-459.32409999999999</v>
-      </c>
-      <c r="I31" s="5">
-        <v>143.8777</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.15575548000000003</v>
-      </c>
-      <c r="K31" s="5">
-        <v>-2.8486921749999998E-2</v>
-      </c>
-      <c r="L31" s="5">
-        <v>-0.2500219005</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0.11158779000000001</v>
-      </c>
-      <c r="N31" s="6">
-        <v>8.244881875E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3420.5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>127.7655</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-202.0394</v>
-      </c>
-      <c r="F32" s="2">
-        <v>5411.0749999999998</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2530.6990000000001</v>
-      </c>
-      <c r="H32" s="2">
-        <v>-260.54149999999998</v>
-      </c>
-      <c r="I32" s="2">
-        <v>611.4914</v>
-      </c>
-      <c r="J32" s="2">
-        <v>-8.4099792499999992E-2</v>
-      </c>
-      <c r="K32" s="2">
-        <v>-0.14244737500000001</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.14190396</v>
-      </c>
-      <c r="M32" s="2">
-        <v>4.3998319999999994E-2</v>
-      </c>
-      <c r="N32" s="3">
-        <v>7.8683199999999995E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2808.92</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="D54" s="8">
+        <v>2790</v>
+      </c>
+      <c r="E54" s="8">
         <v>-187.78970000000001</v>
       </c>
-      <c r="E33" s="5">
-        <v>348.66109999999998</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1810.1590000000001</v>
-      </c>
-      <c r="H33" s="5">
-        <v>-660.21109999999999</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1132.0578</v>
-      </c>
-      <c r="J33" s="5">
-        <v>-2.4134732500000006E-2</v>
-      </c>
-      <c r="K33" s="5">
-        <v>8.150781E-2</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0.18218756</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0.26969483500000002</v>
-      </c>
-      <c r="N33" s="6">
-        <v>-0.57779875250000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4747.1400000000003</v>
-      </c>
-      <c r="D34" s="2">
-        <v>193.69</v>
-      </c>
-      <c r="E34" s="2">
-        <v>197.56989999999999</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>-296.92689999999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>460.30070000000001</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.13521005500000002</v>
-      </c>
-      <c r="K34" s="2">
-        <v>-5.5816225000000011E-3</v>
-      </c>
-      <c r="L34" s="2">
-        <v>-2.3222012500000003E-2</v>
-      </c>
-      <c r="M34" s="2">
-        <v>-0.27153754250000001</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0.20412255000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3369.56</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-217.7833</v>
-      </c>
-      <c r="E35" s="5">
-        <v>-124.18559999999999</v>
-      </c>
-      <c r="F35" s="5">
-        <v>237.697</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>-415.21719999999999</v>
-      </c>
-      <c r="I35" s="5">
-        <v>-395.64299999999997</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0.215329035</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0.38094429750000003</v>
-      </c>
-      <c r="L35" s="5">
-        <v>-0.47562325</v>
-      </c>
-      <c r="M35" s="5">
-        <v>4.4258894999999993E-2</v>
-      </c>
-      <c r="N35" s="6">
-        <v>-0.36053112000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2808.92</v>
-      </c>
-      <c r="D36" s="2">
-        <v>109.3571</v>
-      </c>
-      <c r="E36" s="2">
-        <v>678.15819999999997</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>5584.4160000000002</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-299.25560000000002</v>
-      </c>
-      <c r="I36" s="2">
-        <v>217.54750000000001</v>
-      </c>
-      <c r="J36" s="2">
-        <v>-0.35249878749999997</v>
-      </c>
-      <c r="K36" s="2">
-        <v>-0.1333232775</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1.9284570000000008E-2</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.169297005</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.106032235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="5">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
-        <v>3420.5</v>
-      </c>
-      <c r="D37" s="5">
-        <v>52.232700000000001</v>
-      </c>
-      <c r="E37" s="5">
-        <v>331.13440000000003</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>818.13800000000003</v>
-      </c>
-      <c r="H37" s="5">
-        <v>-328.75819999999999</v>
-      </c>
-      <c r="I37" s="5">
-        <v>-65.808400000000006</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0.26509956749999997</v>
-      </c>
-      <c r="K37" s="5">
-        <v>-5.92591425E-2</v>
-      </c>
-      <c r="L37" s="5">
-        <v>-0.11696576</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0.20447324</v>
-      </c>
-      <c r="N37" s="6">
-        <v>-7.8062964999999998E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="2">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2790</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-17.016999999999999</v>
-      </c>
-      <c r="E38" s="2">
-        <v>806.29930000000002</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>82.191999999999993</v>
-      </c>
-      <c r="I38" s="2">
-        <v>960.32349999999997</v>
-      </c>
-      <c r="J38" s="2">
-        <v>-0.44676684249999998</v>
-      </c>
-      <c r="K38" s="2">
-        <v>-0.3983216175</v>
-      </c>
-      <c r="L38" s="2">
-        <v>-0.11911255999999999</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0.60228686750000004</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0.26118724000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5">
-        <v>4119.5600000000004</v>
-      </c>
-      <c r="D39" s="5">
-        <v>587.35839999999996</v>
-      </c>
-      <c r="E39" s="5">
-        <v>104.27079999999999</v>
-      </c>
-      <c r="F39" s="12">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>185.09790000000001</v>
-      </c>
-      <c r="I39" s="5">
-        <v>1255.9167</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0.32361542500000001</v>
-      </c>
-      <c r="K39" s="5">
-        <v>-8.5441675000000009E-2</v>
-      </c>
-      <c r="L39" s="5">
-        <v>-0.69739435499999991</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0.23437130250000004</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0.58063897999999992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="2">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2">
-        <v>3092.78</v>
-      </c>
-      <c r="D40" s="2">
-        <v>-33.284999999999997</v>
-      </c>
-      <c r="E40" s="2">
-        <v>224.2878</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2180.2350000000001</v>
-      </c>
-      <c r="H40" s="2">
-        <v>-401.65170000000001</v>
-      </c>
-      <c r="I40" s="2">
-        <v>114.913</v>
-      </c>
-      <c r="J40" s="2">
-        <v>-7.9768872500000004E-2</v>
-      </c>
-      <c r="K40" s="2">
-        <v>-5.5910259999999996E-2</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0.103428275</v>
-      </c>
-      <c r="M40" s="2">
-        <v>-4.8076424999999999E-2</v>
-      </c>
-      <c r="N40" s="3">
-        <v>4.3139217500000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="5">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5">
-        <v>3272.78</v>
-      </c>
-      <c r="D41" s="5">
-        <v>52.298299999999998</v>
-      </c>
-      <c r="E41" s="5">
-        <v>173.5394</v>
-      </c>
-      <c r="F41" s="5">
-        <v>3695.2469999999998</v>
-      </c>
-      <c r="G41" s="5">
-        <v>-168.965</v>
-      </c>
-      <c r="H41" s="5">
-        <v>-321.80810000000002</v>
-      </c>
-      <c r="I41" s="5">
-        <v>308.46809999999999</v>
-      </c>
-      <c r="J41" s="5">
-        <v>-2.0823607500000004E-2</v>
-      </c>
-      <c r="K41" s="5">
-        <v>8.4433872500000007E-2</v>
-      </c>
-      <c r="L41" s="5">
-        <v>-0.23413393500000002</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0.16750761749999998</v>
-      </c>
-      <c r="N41" s="6">
-        <v>-6.8613544999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2790</v>
-      </c>
-      <c r="D42" s="2">
-        <v>-366.59440000000001</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-313.83819999999997</v>
-      </c>
-      <c r="F42" s="2">
-        <v>122.556</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>-317.33620000000002</v>
-      </c>
-      <c r="I42" s="2">
-        <v>-157.94739999999999</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.45556312000000004</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.50483664000000006</v>
-      </c>
-      <c r="L42" s="2">
-        <v>-8.2221382499999968E-2</v>
-      </c>
-      <c r="M42" s="2">
-        <v>-0.454441655</v>
-      </c>
-      <c r="N42" s="3">
-        <v>-0.40626288249999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2894.24</v>
-      </c>
-      <c r="D43" s="5">
-        <v>322.77280000000002</v>
-      </c>
-      <c r="E43" s="5">
-        <v>84.740300000000005</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>3038.8539999999998</v>
-      </c>
-      <c r="H43" s="5">
-        <v>-43.215000000000003</v>
-      </c>
-      <c r="I43" s="5">
-        <v>539.00549999999998</v>
-      </c>
-      <c r="J43" s="5">
-        <v>-0.44208225500000004</v>
-      </c>
-      <c r="K43" s="5">
-        <v>-0.393530555</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0.40543534000000003</v>
-      </c>
-      <c r="M43" s="5">
-        <v>5.7982417499999987E-2</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0.33608591750000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>3420.5</v>
-      </c>
-      <c r="D44" s="2">
-        <v>-35.224800000000002</v>
-      </c>
-      <c r="E44" s="2">
-        <v>285.92689999999999</v>
-      </c>
-      <c r="F44" s="2">
-        <v>8096.2749999999996</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>-423.85550000000001</v>
-      </c>
-      <c r="I44" s="2">
-        <v>-99.917500000000004</v>
-      </c>
-      <c r="J44" s="2">
-        <v>-1.0280203249999998E-2</v>
-      </c>
-      <c r="K44" s="2">
-        <v>2.49443315E-2</v>
-      </c>
-      <c r="L44" s="2">
-        <v>-9.53413075E-2</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0.11953400475000001</v>
-      </c>
-      <c r="N44" s="3">
-        <v>-7.7927788499999998E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="5">
-        <v>3420.5</v>
-      </c>
-      <c r="D45" s="5">
-        <v>-33.180599999999998</v>
-      </c>
-      <c r="E45" s="5">
-        <v>65.3489</v>
-      </c>
-      <c r="F45" s="12">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>2993.7939999999999</v>
-      </c>
-      <c r="H45" s="5">
-        <v>-900.5249</v>
-      </c>
-      <c r="I45" s="5">
-        <v>252.73089999999999</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0.37894316899999997</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0.19009846599999999</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1.6955544999999999E-2</v>
-      </c>
-      <c r="M45" s="5">
-        <v>-0.50261850424999999</v>
-      </c>
-      <c r="N45" s="6">
-        <v>1.6750886999999992E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3122</v>
-      </c>
-      <c r="D46" s="2">
-        <v>190.82220000000001</v>
-      </c>
-      <c r="E46" s="2">
-        <v>101.5133</v>
-      </c>
-      <c r="F46" s="2">
-        <v>-3026.6689999999999</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2933.9009999999998</v>
-      </c>
-      <c r="H46" s="2">
-        <v>284.83319999999998</v>
-      </c>
-      <c r="I46" s="2">
-        <v>360.94009999999997</v>
-      </c>
-      <c r="J46" s="2">
-        <v>-0.10441537249999999</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1.8986617500000004E-2</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0.19218051250000001</v>
-      </c>
-      <c r="M46" s="2">
-        <v>-0.28142983500000002</v>
-      </c>
-      <c r="N46" s="3">
-        <v>9.7858352500000009E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2790</v>
-      </c>
-      <c r="D47" s="5">
-        <v>80.023099999999999</v>
-      </c>
-      <c r="E47" s="5">
-        <v>161.7927</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>-280.1114</v>
-      </c>
-      <c r="I47" s="5">
-        <v>846.31</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0.19018287749999996</v>
-      </c>
-      <c r="K47" s="5">
-        <v>-0.34836374000000003</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0.29652866499999997</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0.19480016</v>
-      </c>
-      <c r="N47" s="6">
-        <v>-6.1909782499999989E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3092.78</v>
-      </c>
-      <c r="D48" s="2">
-        <v>89.407499999999999</v>
-      </c>
-      <c r="E48" s="2">
-        <v>187.22149999999999</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>-191.85059999999999</v>
-      </c>
-      <c r="I48" s="2">
-        <v>215.73429999999999</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.11365495749999997</v>
-      </c>
-      <c r="K48" s="2">
-        <v>-6.4426432499999992E-2</v>
-      </c>
-      <c r="L48" s="2">
-        <v>-0.32089500750000005</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0.35363730250000003</v>
-      </c>
-      <c r="N48" s="3">
-        <v>-3.3337627499999994E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5">
-        <v>3190</v>
-      </c>
-      <c r="D49" s="5">
-        <v>-141.4091</v>
-      </c>
-      <c r="E49" s="5">
-        <v>223.00980000000001</v>
-      </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>-487.7525</v>
-      </c>
-      <c r="I49" s="5">
-        <v>-16.6386</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0.49581452250000002</v>
-      </c>
-      <c r="K49" s="5">
-        <v>-2.0044442499999982E-2</v>
-      </c>
-      <c r="L49" s="5">
-        <v>-0.12972878249999997</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0.11621450999999999</v>
-      </c>
-      <c r="N49" s="6">
-        <v>-0.12628941999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>3650</v>
-      </c>
-      <c r="D50" s="2">
-        <v>-157.37270000000001</v>
-      </c>
-      <c r="E50" s="2">
-        <v>38.976199999999999</v>
-      </c>
-      <c r="F50" s="2">
-        <v>86.843000000000004</v>
-      </c>
-      <c r="G50" s="2">
-        <v>-314.94099999999997</v>
-      </c>
-      <c r="H50" s="2">
-        <v>-740.64210000000003</v>
-      </c>
-      <c r="I50" s="2">
-        <v>266.0369</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0.18883565375</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0.10242137749999999</v>
-      </c>
-      <c r="L50" s="2">
-        <v>-3.8400088999999998E-2</v>
-      </c>
-      <c r="M50" s="2">
-        <v>-9.3005044999999995E-2</v>
-      </c>
-      <c r="N50" s="3">
-        <v>-0.11651133475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="5">
-        <v>3420.5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>66.977900000000005</v>
-      </c>
-      <c r="E51" s="5">
-        <v>-36.882300000000001</v>
-      </c>
-      <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>-162.63929999999999</v>
-      </c>
-      <c r="I51" s="5">
-        <v>289.74310000000003</v>
-      </c>
-      <c r="J51" s="5">
-        <v>-0.24315935225000002</v>
-      </c>
-      <c r="K51" s="5">
-        <v>-0.24248549575</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0.26452232225</v>
-      </c>
-      <c r="M51" s="5">
-        <v>0.27546864999999998</v>
-      </c>
-      <c r="N51" s="6">
-        <v>-9.0200528000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>3420.5</v>
-      </c>
-      <c r="D52" s="2">
-        <v>22.290900000000001</v>
-      </c>
-      <c r="E52" s="2">
-        <v>132.16980000000001</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>-178.64099999999999</v>
-      </c>
-      <c r="I52" s="2">
-        <v>-49.647399999999998</v>
-      </c>
-      <c r="J52" s="2">
-        <v>-6.2720520000000002E-2</v>
-      </c>
-      <c r="K52" s="2">
-        <v>-5.3792977499999999E-2</v>
-      </c>
-      <c r="L52" s="2">
-        <v>-0.37105946000000001</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0.40756364</v>
-      </c>
-      <c r="N52" s="3">
-        <v>-2.289062E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2790</v>
-      </c>
-      <c r="D53" s="5">
-        <v>40.595700000000001</v>
-      </c>
-      <c r="E53" s="5">
-        <v>233.72030000000001</v>
-      </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>-149.327</v>
-      </c>
-      <c r="I53" s="5">
-        <v>563.93650000000002</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0.15575548000000003</v>
-      </c>
-      <c r="K53" s="5">
-        <v>-2.8486921749999998E-2</v>
-      </c>
-      <c r="L53" s="5">
-        <v>-0.2500219005</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0.11158779000000001</v>
-      </c>
-      <c r="N53" s="6">
-        <v>8.244881875E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="8">
-        <v>6</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2790</v>
-      </c>
-      <c r="D54" s="8">
-        <v>-187.78970000000001</v>
-      </c>
-      <c r="E54" s="8">
+      <c r="F54" s="8">
         <v>-354.8904</v>
       </c>
-      <c r="F54" s="31">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="G54" s="31">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
         <v>1851.248</v>
       </c>
-      <c r="H54" s="8">
+      <c r="I54" s="8">
         <v>248.33619999999999</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>1259.0491</v>
       </c>
-      <c r="J54" s="8">
+      <c r="K54" s="8">
         <v>0.16055491750000001</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>-5.866215000000001E-2</v>
       </c>
-      <c r="L54" s="8">
+      <c r="M54" s="8">
         <v>0.67993525750000006</v>
       </c>
-      <c r="M54" s="8">
+      <c r="N54" s="8">
         <v>-0.111417665</v>
       </c>
-      <c r="N54" s="9">
+      <c r="O54" s="9">
         <v>-0.63138032749999995</v>
       </c>
     </row>
